--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/4.TraBH/TBH220829_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang8/4.TraBH/TBH220829_TechGlobal.xlsx
@@ -649,6 +649,51 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -678,51 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,7 +1084,7 @@
   <dimension ref="A2:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1104,77 +1104,77 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="57" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="57" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="60" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
@@ -1183,58 +1183,58 @@
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="56"/>
       <c r="M10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
       <c r="L11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1667,23 +1667,23 @@
     <row r="74" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:C5"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="A2:C5"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D5:I5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
